--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -549,34 +549,34 @@
         <v>0.9711091978791584</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.611633666666667</v>
+        <v>9.673704333333333</v>
       </c>
       <c r="N2">
-        <v>16.834901</v>
+        <v>29.021113</v>
       </c>
       <c r="O2">
-        <v>0.1044932796553548</v>
+        <v>0.1714456165911166</v>
       </c>
       <c r="P2">
-        <v>0.1044932796553548</v>
+        <v>0.1714456165911166</v>
       </c>
       <c r="Q2">
-        <v>58.55315117552556</v>
+        <v>100.9377849487211</v>
       </c>
       <c r="R2">
-        <v>526.9783605797301</v>
+        <v>908.4400645384899</v>
       </c>
       <c r="S2">
-        <v>0.1014743849898741</v>
+        <v>0.166492415207697</v>
       </c>
       <c r="T2">
-        <v>0.1014743849898741</v>
+        <v>0.166492415207697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>70.23071899999999</v>
       </c>
       <c r="O3">
-        <v>0.435918106133421</v>
+        <v>0.4148961799842911</v>
       </c>
       <c r="P3">
-        <v>0.435918106133421</v>
+        <v>0.4148961799842911</v>
       </c>
       <c r="Q3">
         <v>244.2681371736522</v>
@@ -635,10 +635,10 @@
         <v>2198.41323456287</v>
       </c>
       <c r="S3">
-        <v>0.4233240823882283</v>
+        <v>0.4029094965476718</v>
       </c>
       <c r="T3">
-        <v>0.4233240823882283</v>
+        <v>0.4029094965476718</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.56783033333333</v>
+        <v>23.09142233333333</v>
       </c>
       <c r="N4">
-        <v>73.703491</v>
+        <v>69.27426699999999</v>
       </c>
       <c r="O4">
-        <v>0.4574734057918678</v>
+        <v>0.4092458280188166</v>
       </c>
       <c r="P4">
-        <v>0.4574734057918678</v>
+        <v>0.4092458280188166</v>
       </c>
       <c r="Q4">
-        <v>256.3467198700478</v>
+        <v>240.9415195387677</v>
       </c>
       <c r="R4">
-        <v>2307.12047883043</v>
+        <v>2168.47367584891</v>
       </c>
       <c r="S4">
-        <v>0.4442566321495875</v>
+        <v>0.397422387782745</v>
       </c>
       <c r="T4">
-        <v>0.4442566321495874</v>
+        <v>0.397422387782745</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1135936666666667</v>
+        <v>0.2489653333333333</v>
       </c>
       <c r="N5">
-        <v>0.340781</v>
+        <v>0.746896</v>
       </c>
       <c r="O5">
-        <v>0.002115208419356398</v>
+        <v>0.004412375405775742</v>
       </c>
       <c r="P5">
-        <v>0.002115208419356398</v>
+        <v>0.004412375405775742</v>
       </c>
       <c r="Q5">
-        <v>1.185263959125555</v>
+        <v>2.597764869564445</v>
       </c>
       <c r="R5">
-        <v>10.66737563213</v>
+        <v>23.37988382608</v>
       </c>
       <c r="S5">
-        <v>0.002054098351468434</v>
+        <v>0.004284898341044606</v>
       </c>
       <c r="T5">
-        <v>0.002054098351468434</v>
+        <v>0.004284898341044606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,34 +797,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.611633666666667</v>
+        <v>9.673704333333333</v>
       </c>
       <c r="N6">
-        <v>16.834901</v>
+        <v>29.021113</v>
       </c>
       <c r="O6">
-        <v>0.1044932796553548</v>
+        <v>0.1714456165911166</v>
       </c>
       <c r="P6">
-        <v>0.1044932796553548</v>
+        <v>0.1714456165911166</v>
       </c>
       <c r="Q6">
-        <v>1.741974546074</v>
+        <v>3.002930646562</v>
       </c>
       <c r="R6">
-        <v>15.677770914666</v>
+        <v>27.026375819058</v>
       </c>
       <c r="S6">
-        <v>0.003018894665480618</v>
+        <v>0.004953201383419629</v>
       </c>
       <c r="T6">
-        <v>0.003018894665480619</v>
+        <v>0.00495320138341963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,10 +871,10 @@
         <v>70.23071899999999</v>
       </c>
       <c r="O7">
-        <v>0.435918106133421</v>
+        <v>0.4148961799842911</v>
       </c>
       <c r="P7">
-        <v>0.435918106133421</v>
+        <v>0.4148961799842911</v>
       </c>
       <c r="Q7">
         <v>7.267053417805999</v>
@@ -883,10 +883,10 @@
         <v>65.40348076025398</v>
       </c>
       <c r="S7">
-        <v>0.0125940237451927</v>
+        <v>0.01198668343661924</v>
       </c>
       <c r="T7">
-        <v>0.0125940237451927</v>
+        <v>0.01198668343661924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.56783033333333</v>
+        <v>23.09142233333333</v>
       </c>
       <c r="N8">
-        <v>73.703491</v>
+        <v>69.27426699999999</v>
       </c>
       <c r="O8">
-        <v>0.4574734057918678</v>
+        <v>0.4092458280188166</v>
       </c>
       <c r="P8">
-        <v>0.4574734057918678</v>
+        <v>0.4092458280188166</v>
       </c>
       <c r="Q8">
-        <v>7.626395027734</v>
+        <v>7.168085503557998</v>
       </c>
       <c r="R8">
-        <v>68.637555249606</v>
+        <v>64.51276953202199</v>
       </c>
       <c r="S8">
-        <v>0.01321677364228033</v>
+        <v>0.01182344023607161</v>
       </c>
       <c r="T8">
-        <v>0.01321677364228033</v>
+        <v>0.01182344023607161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1135936666666667</v>
+        <v>0.2489653333333333</v>
       </c>
       <c r="N9">
-        <v>0.340781</v>
+        <v>0.746896</v>
       </c>
       <c r="O9">
-        <v>0.002115208419356398</v>
+        <v>0.004412375405775742</v>
       </c>
       <c r="P9">
-        <v>0.002115208419356398</v>
+        <v>0.004412375405775742</v>
       </c>
       <c r="Q9">
-        <v>0.035261973194</v>
+        <v>0.077284316704</v>
       </c>
       <c r="R9">
-        <v>0.317357758746</v>
+        <v>0.695558850336</v>
       </c>
       <c r="S9">
-        <v>6.111006788796385E-05</v>
+        <v>0.0001274770647311351</v>
       </c>
       <c r="T9">
-        <v>6.111006788796386E-05</v>
+        <v>0.0001274770647311352</v>
       </c>
     </row>
   </sheetData>
